--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -247,6 +247,65 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>投诉点击已解决无效</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>12/230</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>官网房间详情页增加类似百度爬虫防刷相关处理</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>免测，开发自测及技术经理审核</t>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -490,17 +549,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -735,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,9 +1072,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,10 +1108,7 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1154,21 @@
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1127,8 +1192,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1474,14 +1539,14 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
@@ -1569,51 +1634,107 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="105">
+        <v>42734</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="105">
+        <v>42734</v>
+      </c>
       <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="38"/>
+      <c r="L2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="47"/>
+      <c r="O2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="R2" s="47"/>
       <c r="S2" s="44"/>
       <c r="T2" s="49"/>
       <c r="U2" s="50"/>
       <c r="V2" s="51"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="52"/>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="100">
+        <v>2</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="105">
+        <v>42735</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="102">
+        <v>42734</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="104" t="s">
+        <v>83</v>
+      </c>
       <c r="V3" s="51"/>
     </row>
     <row r="4" spans="1:22" ht="23.25" customHeight="1">
@@ -1679,13 +1800,13 @@
       <c r="N6" s="92"/>
       <c r="O6" s="44"/>
       <c r="P6" s="39"/>
-      <c r="Q6" s="94"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:22" s="98" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1694,7 +1815,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="95"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="39"/>
       <c r="K7" s="36"/>
       <c r="L7" s="47"/>
@@ -1702,12 +1823,12 @@
       <c r="N7" s="92"/>
       <c r="O7" s="44"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="98"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="97"/>
     </row>
     <row r="8" spans="1:22" ht="21.75" customHeight="1">
       <c r="A8" s="80"/>
@@ -1721,12 +1842,12 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="100"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="47"/>
       <c r="N8" s="92"/>
       <c r="O8" s="44"/>
       <c r="P8" s="39"/>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="93"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -1749,7 +1870,7 @@
       <c r="N9" s="92"/>
       <c r="O9" s="44"/>
       <c r="P9" s="39"/>
-      <c r="Q9" s="94"/>
+      <c r="Q9" s="93"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
@@ -1757,50 +1878,50 @@
     </row>
     <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="82"/>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
-      <c r="H10" s="103"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="82"/>
-      <c r="J10" s="103"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="82"/>
       <c r="L10" s="85"/>
       <c r="M10" s="82"/>
       <c r="N10" s="82"/>
       <c r="O10" s="85"/>
-      <c r="P10" s="103"/>
+      <c r="P10" s="102"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="104"/>
+      <c r="U10" s="103"/>
       <c r="V10" s="51"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="80"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
-      <c r="H11" s="103"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="103"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="82"/>
       <c r="L11" s="85"/>
       <c r="M11" s="82"/>
       <c r="N11" s="82"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="103"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="105"/>
+      <c r="U11" s="104"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
@@ -5340,11 +5461,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5539,19 +5665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5589,8 +5715,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5602,8 +5728,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5615,8 +5741,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5628,8 +5754,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5641,8 +5767,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5654,8 +5780,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5667,8 +5793,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5680,8 +5806,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5742,36 +5868,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6056,36 +6182,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6370,36 +6496,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6686,36 +6812,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -287,32 +287,127 @@
   </si>
   <si>
     <t>官网房间详情页增加类似百度爬虫防刷相关处理</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>新特性</t>
   </si>
   <si>
     <t>renterpc</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>朱彤</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>EQ组</t>
   </si>
   <si>
     <t>免测，开发自测及技术经理审核</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>【账单详情】定金押金抵扣，详情显示错误</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加单次账单发送短信为周期性账单提示优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/230</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史退房数据兼容</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间配置显示</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东公告栏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动版房源录入兼容性处理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，App，BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -535,20 +630,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -557,6 +638,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -792,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,27 +1160,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,8 +1175,11 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,6 +1207,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1154,14 +1227,7 @@
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1192,8 +1258,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1539,7 +1605,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1655,13 +1721,13 @@
       <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="105">
+      <c r="H2" s="98">
         <v>42734</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="98">
         <v>42734</v>
       </c>
       <c r="K2" s="38"/>
@@ -1675,7 +1741,7 @@
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="98" t="s">
         <v>76</v>
       </c>
       <c r="Q2" s="47" t="s">
@@ -1688,16 +1754,16 @@
       <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="100">
+      <c r="A3" s="93">
         <v>2</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="96" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="82" t="s">
@@ -1709,13 +1775,13 @@
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="105">
+      <c r="H3" s="98">
         <v>42735</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="102">
+      <c r="J3" s="95">
         <v>42734</v>
       </c>
       <c r="K3" s="82"/>
@@ -1727,201 +1793,398 @@
       </c>
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
-      <c r="P3" s="102"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="85"/>
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
-      <c r="U3" s="104" t="s">
+      <c r="U3" s="97" t="s">
         <v>83</v>
       </c>
       <c r="V3" s="51"/>
     </row>
-    <row r="4" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="98">
+        <v>42734</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="98">
+        <v>42734</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="44"/>
+      <c r="L4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="47">
+        <v>6934</v>
+      </c>
       <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5">
-      <c r="A5" s="80"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
+    </row>
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="33">
+      <c r="A5" s="80">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="98">
+        <v>42734</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="98">
+        <v>42734</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="L5" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="51"/>
+    </row>
+    <row r="6" spans="1:22" ht="23.25" customHeight="1">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="98">
+        <v>42734</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="98">
+        <v>42734</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="44"/>
+      <c r="L6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="38"/>
+      <c r="O6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="44">
+        <v>6954</v>
+      </c>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="98" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:22" ht="16.5">
+      <c r="A7" s="80">
+        <v>4</v>
+      </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="94"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
       <c r="N7" s="92"/>
       <c r="O7" s="44"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="97"/>
-    </row>
-    <row r="8" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+    </row>
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="A8" s="80">
+        <v>1</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="84">
+        <v>42733</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="84">
+        <v>42733</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
+      <c r="L8" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="84">
+        <v>42733</v>
+      </c>
+      <c r="Q8" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="99">
+        <v>6941</v>
+      </c>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="51"/>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="80"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="80">
+        <v>2</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="84">
+        <v>42733</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="84">
+        <v>42733</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="93"/>
+      <c r="L9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="84">
+        <v>42733</v>
+      </c>
+      <c r="Q9" s="86" t="s">
+        <v>77</v>
+      </c>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="44"/>
+    <row r="10" spans="1:22" ht="16.5">
+      <c r="A10" s="80">
+        <v>3</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="84">
+        <v>42733</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="84">
+        <v>42733</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="84">
+        <v>42733</v>
+      </c>
+      <c r="Q10" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="44">
+        <v>6819</v>
+      </c>
       <c r="S10" s="44"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="51"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="80"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="102"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="82"/>
       <c r="L11" s="85"/>
       <c r="M11" s="82"/>
       <c r="N11" s="82"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="102"/>
+      <c r="P11" s="95"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="104"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
@@ -5462,7 +5725,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5470,7 +5733,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 I1:I1048576 G1:G1048576 T1:T11">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5665,19 +5928,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5715,8 +5978,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5728,8 +5991,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5741,8 +6004,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5754,8 +6017,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5767,8 +6030,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5780,8 +6043,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5793,8 +6056,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5806,8 +6069,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5868,36 +6131,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6182,36 +6445,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6496,36 +6759,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6812,36 +7075,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.0.1 新特性|Fix Bug'!$A$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.0.1 新特性|Fix Bug'!$A$1:$U$18</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -400,6 +400,30 @@
   </si>
   <si>
     <t>房东PC，App，BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1205,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,8 +1235,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1602,17 +1629,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
@@ -1737,7 +1764,9 @@
       <c r="M2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="38" t="s">
+        <v>109</v>
+      </c>
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
@@ -1747,14 +1776,16 @@
       <c r="Q2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="47"/>
+      <c r="R2" s="47">
+        <v>6947</v>
+      </c>
       <c r="S2" s="44"/>
       <c r="T2" s="49"/>
       <c r="U2" s="50"/>
       <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="93">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
@@ -1791,10 +1822,18 @@
       <c r="M3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="85"/>
+      <c r="N3" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="39">
+        <v>42734</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>108</v>
+      </c>
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
@@ -1805,7 +1844,7 @@
     </row>
     <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>67</v>
@@ -1813,7 +1852,7 @@
       <c r="C4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="110" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="38" t="s">
@@ -1841,7 +1880,9 @@
       <c r="M4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="O4" s="47" t="s">
         <v>75</v>
       </c>
@@ -1860,8 +1901,8 @@
       <c r="V4" s="51"/>
     </row>
     <row r="5" spans="1:22" s="31" customFormat="1" ht="33">
-      <c r="A5" s="80">
-        <v>2</v>
+      <c r="A5" s="36">
+        <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>67</v>
@@ -1897,7 +1938,9 @@
       <c r="M5" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="O5" s="47" t="s">
         <v>75</v>
       </c>
@@ -1915,7 +1958,7 @@
     </row>
     <row r="6" spans="1:22" ht="23.25" customHeight="1">
       <c r="A6" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>67</v>
@@ -1951,7 +1994,9 @@
       <c r="M6" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="O6" s="47" t="s">
         <v>75</v>
       </c>
@@ -1968,34 +2013,67 @@
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
-      <c r="A7" s="80">
-        <v>4</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="84">
+        <v>42733</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="84">
+        <v>42733</v>
+      </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A8" s="80">
-        <v>1</v>
+      <c r="L7" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="84">
+        <v>42733</v>
+      </c>
+      <c r="Q7" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="99">
+        <v>6941</v>
+      </c>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="51"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5">
+      <c r="A8" s="36">
+        <v>7</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>67</v>
@@ -2003,14 +2081,14 @@
       <c r="C8" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="109" t="s">
-        <v>94</v>
+      <c r="D8" s="50" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>72</v>
@@ -2026,13 +2104,13 @@
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M8" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="81" t="s">
-        <v>99</v>
+      <c r="N8" s="92" t="s">
+        <v>103</v>
       </c>
       <c r="O8" s="86" t="s">
         <v>75</v>
@@ -2043,17 +2121,14 @@
       <c r="Q8" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="R8" s="99">
-        <v>6941</v>
-      </c>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="51"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="80">
-        <v>2</v>
+      <c r="A9" s="36">
+        <v>8</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>67</v>
@@ -2062,13 +2137,13 @@
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>72</v>
@@ -2084,7 +2159,7 @@
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M9" s="47" t="s">
         <v>98</v>
@@ -2101,91 +2176,59 @@
       <c r="Q9" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="44"/>
+      <c r="R9" s="44">
+        <v>6819</v>
+      </c>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
-      <c r="A10" s="80">
-        <v>3</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="84">
-        <v>42733</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="84">
-        <v>42733</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="84">
-        <v>42733</v>
-      </c>
-      <c r="Q10" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="44">
-        <v>6819</v>
-      </c>
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="A10" s="80"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="T10" s="49"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="51"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="80"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="82"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="85"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="86"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="51"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="80"/>
@@ -2233,34 +2276,35 @@
       <c r="T13" s="44"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="45"/>
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="51"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="79"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
@@ -2274,8 +2318,8 @@
       <c r="O15" s="77"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="77"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
       <c r="T15" s="49"/>
       <c r="U15" s="78"/>
       <c r="V15" s="51"/>
@@ -2372,33 +2416,32 @@
       <c r="Q19" s="77"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="49"/>
+      <c r="T19" s="44"/>
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
+    <row r="20" spans="1:22" ht="16.5">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="51"/>
+      <c r="U20" s="52"/>
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
@@ -2441,10 +2484,10 @@
       <c r="O22" s="47"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="52"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
@@ -2464,9 +2507,9 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
       <c r="U23" s="55"/>
     </row>
     <row r="24" spans="1:22" ht="16.5">
@@ -2481,7 +2524,7 @@
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="47"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
@@ -2489,7 +2532,7 @@
       <c r="Q24" s="47"/>
       <c r="R24" s="56"/>
       <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="55"/>
     </row>
     <row r="25" spans="1:22" ht="16.5">
@@ -2512,7 +2555,7 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="56"/>
       <c r="S25" s="56"/>
-      <c r="T25" s="57"/>
+      <c r="T25" s="56"/>
       <c r="U25" s="55"/>
     </row>
     <row r="26" spans="1:22" ht="16.5">
@@ -2527,7 +2570,7 @@
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="38"/>
       <c r="N26" s="47"/>
       <c r="O26" s="47"/>
@@ -2556,10 +2599,10 @@
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="55"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="47"/>
     </row>
     <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
@@ -2579,10 +2622,10 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="47"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="52"/>
     </row>
     <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
@@ -2641,40 +2684,40 @@
       <c r="H31" s="39"/>
       <c r="I31" s="38"/>
       <c r="J31" s="39"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="42"/>
       <c r="L31" s="47"/>
       <c r="M31" s="38"/>
       <c r="N31" s="47"/>
       <c r="O31" s="47"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="47"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="52"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="55"/>
     </row>
     <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="42"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="42"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="47"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="47"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="55"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="50"/>
     </row>
     <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
@@ -2697,7 +2740,7 @@
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="50"/>
+      <c r="U33" s="52"/>
     </row>
     <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
@@ -2910,23 +2953,23 @@
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="38"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="39"/>
       <c r="K43" s="38"/>
       <c r="L43" s="47"/>
-      <c r="M43" s="38"/>
+      <c r="M43" s="47"/>
       <c r="N43" s="38"/>
       <c r="O43" s="47"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="47"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
       <c r="U43" s="52"/>
     </row>
     <row r="44" spans="1:21" ht="16.5">
@@ -2956,24 +2999,24 @@
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
-      <c r="D45" s="40"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="39"/>
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
-      <c r="K45" s="38"/>
+      <c r="K45" s="48"/>
       <c r="L45" s="47"/>
       <c r="M45" s="47"/>
       <c r="N45" s="38"/>
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="52"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
@@ -3114,23 +3157,23 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="16.5">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="38"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="46"/>
       <c r="K52" s="48"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="47"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="45"/>
       <c r="R52" s="44"/>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
@@ -3488,7 +3531,7 @@
       <c r="D68" s="45"/>
       <c r="E68" s="44"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="46"/>
       <c r="I68" s="44"/>
       <c r="J68" s="46"/>
@@ -3619,13 +3662,13 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
       <c r="D74" s="45"/>
       <c r="E74" s="44"/>
-      <c r="F74" s="38"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="44"/>
       <c r="H74" s="46"/>
       <c r="I74" s="44"/>
@@ -5017,9 +5060,6 @@
       <c r="O134" s="44"/>
       <c r="P134" s="46"/>
       <c r="Q134" s="45"/>
-      <c r="R134" s="44"/>
-      <c r="S134" s="44"/>
-      <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
     <row r="135" spans="1:21">
@@ -5702,26 +5742,6 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21">
-      <c r="A169" s="44"/>
-      <c r="B169" s="44"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="45"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="44"/>
-      <c r="J169" s="46"/>
-      <c r="K169" s="48"/>
-      <c r="L169" s="44"/>
-      <c r="M169" s="44"/>
-      <c r="N169" s="44"/>
-      <c r="O169" s="44"/>
-      <c r="P169" s="46"/>
-      <c r="Q169" s="45"/>
-      <c r="U169" s="45"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D3">
@@ -5730,11 +5750,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 T1:T10 G1:G1048576 I1:I1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 I1:I1048576 G1:G1048576 T1:T11">
-      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
@@ -5753,7 +5773,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5928,19 +5948,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5978,8 +5998,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5991,8 +6011,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6004,8 +6024,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6017,8 +6037,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6030,8 +6050,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6043,8 +6063,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6056,8 +6076,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6069,8 +6089,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6131,36 +6151,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6445,36 +6465,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6759,36 +6779,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7075,36 +7095,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -424,6 +424,25 @@
   </si>
   <si>
     <t>李傲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决提交聚有财申请资料异常时导致支付回滚的问题</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,9 +1206,6 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,6 +1224,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1631,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,13 +1764,13 @@
       <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="97">
         <v>42734</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="97">
         <v>42734</v>
       </c>
       <c r="K2" s="38"/>
@@ -1770,7 +1786,7 @@
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>76</v>
       </c>
       <c r="Q2" s="47" t="s">
@@ -1794,7 +1810,7 @@
       <c r="C3" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="95" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="82" t="s">
@@ -1806,13 +1822,13 @@
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="97">
         <v>42735</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="95">
+      <c r="J3" s="94">
         <v>42734</v>
       </c>
       <c r="K3" s="82"/>
@@ -1837,7 +1853,7 @@
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
-      <c r="U3" s="97" t="s">
+      <c r="U3" s="96" t="s">
         <v>83</v>
       </c>
       <c r="V3" s="51"/>
@@ -1852,7 +1868,7 @@
       <c r="C4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="100" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="38" t="s">
@@ -1864,13 +1880,13 @@
       <c r="G4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="97">
         <v>42734</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="97">
         <v>42734</v>
       </c>
       <c r="K4" s="38"/>
@@ -1886,7 +1902,7 @@
       <c r="O4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="97" t="s">
         <v>76</v>
       </c>
       <c r="Q4" s="47" t="s">
@@ -1900,7 +1916,7 @@
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="33">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -1922,13 +1938,13 @@
       <c r="G5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="97">
         <v>42734</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="97">
         <v>42734</v>
       </c>
       <c r="K5" s="38"/>
@@ -1944,15 +1960,15 @@
       <c r="O5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="98" t="s">
+      <c r="P5" s="97" t="s">
         <v>91</v>
       </c>
       <c r="Q5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
       <c r="U5" s="52"/>
       <c r="V5" s="51"/>
     </row>
@@ -1978,13 +1994,13 @@
       <c r="G6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="97">
         <v>42734</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="97">
         <v>42734</v>
       </c>
       <c r="K6" s="38"/>
@@ -2000,7 +2016,7 @@
       <c r="O6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="97" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="47" t="s">
@@ -2023,7 +2039,7 @@
       <c r="C7" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="99" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -2063,11 +2079,11 @@
       <c r="Q7" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="99">
+      <c r="R7" s="98">
         <v>6941</v>
       </c>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
       <c r="U7" s="52"/>
       <c r="V7" s="51"/>
     </row>
@@ -2183,28 +2199,62 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A10" s="80"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="44"/>
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="97">
+        <v>42734</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="97">
+        <v>42734</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="97">
+        <v>42734</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="47">
+        <v>6963</v>
+      </c>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="50"/>
       <c r="V10" s="51"/>
     </row>
     <row r="11" spans="1:22" ht="16.5">
@@ -5750,7 +5800,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 T1:T10 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 I1:I1048576 G1:G1048576 T1:T10">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.1 20161230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.2.0.1 20161230\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -287,25 +287,25 @@
   </si>
   <si>
     <t>官网房间详情页增加类似百度爬虫防刷相关处理</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>新特性</t>
   </si>
   <si>
     <t>renterpc</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>朱彤</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>EQ组</t>
   </si>
   <si>
     <t>免测，开发自测及技术经理审核</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>【账单详情】定金押金抵扣，详情显示错误</t>
@@ -445,12 +445,54 @@
     <t>纪维玉</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>BS  去掉企业版和个人版选择</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>安迪</t>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>紫梦</t>
+  </si>
+  <si>
+    <t>移动版忘记密码企业版限制</t>
+  </si>
+  <si>
+    <t>mogoroom-papp</t>
+  </si>
+  <si>
+    <t>bs添加房东去掉400</t>
+  </si>
+  <si>
+    <t>首页工作台房源统计问题</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+  </si>
+  <si>
+    <t>生产同步数据问题</t>
+  </si>
+  <si>
+    <t>room-job-sync</t>
+  </si>
+  <si>
+    <t>梦先铭</t>
+  </si>
+  <si>
+    <t>房态图已预定的房源无法在房态图上展示</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -647,12 +689,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -923,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,67 +1197,58 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1280,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1648,36 +1678,36 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.88671875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="28.8">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1764,13 +1794,13 @@
       <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="94">
         <v>42734</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="97">
+      <c r="J2" s="94">
         <v>42734</v>
       </c>
       <c r="K2" s="38"/>
@@ -1786,7 +1816,7 @@
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="94" t="s">
         <v>76</v>
       </c>
       <c r="Q2" s="47" t="s">
@@ -1804,38 +1834,38 @@
       <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="94">
         <v>42735</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="94">
+      <c r="J3" s="91">
         <v>42734</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="85" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="83" t="s">
         <v>82</v>
       </c>
       <c r="N3" s="47" t="s">
@@ -1853,7 +1883,7 @@
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
-      <c r="U3" s="96" t="s">
+      <c r="U3" s="93" t="s">
         <v>83</v>
       </c>
       <c r="V3" s="51"/>
@@ -1868,7 +1898,7 @@
       <c r="C4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="97" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="38" t="s">
@@ -1880,13 +1910,13 @@
       <c r="G4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="94">
         <v>42734</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="94">
         <v>42734</v>
       </c>
       <c r="K4" s="38"/>
@@ -1902,7 +1932,7 @@
       <c r="O4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="94" t="s">
         <v>76</v>
       </c>
       <c r="Q4" s="47" t="s">
@@ -1916,7 +1946,7 @@
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -1938,13 +1968,13 @@
       <c r="G5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="94">
         <v>42734</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="94">
         <v>42734</v>
       </c>
       <c r="K5" s="38"/>
@@ -1960,15 +1990,15 @@
       <c r="O5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="97" t="s">
+      <c r="P5" s="94" t="s">
         <v>91</v>
       </c>
       <c r="Q5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
       <c r="U5" s="52"/>
       <c r="V5" s="51"/>
     </row>
@@ -1994,13 +2024,13 @@
       <c r="G6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="94">
         <v>42734</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="94">
         <v>42734</v>
       </c>
       <c r="K6" s="38"/>
@@ -2016,7 +2046,7 @@
       <c r="O6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="94" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="47" t="s">
@@ -2029,17 +2059,17 @@
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="15.6">
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="96" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -2051,13 +2081,13 @@
       <c r="G7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="82">
         <v>42733</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="82">
         <v>42733</v>
       </c>
       <c r="K7" s="38"/>
@@ -2067,34 +2097,34 @@
       <c r="M7" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="84">
+      <c r="P7" s="82">
         <v>42733</v>
       </c>
-      <c r="Q7" s="86" t="s">
+      <c r="Q7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="98">
+      <c r="R7" s="95">
         <v>6941</v>
       </c>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
       <c r="U7" s="52"/>
       <c r="V7" s="51"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="50" t="s">
@@ -2109,13 +2139,13 @@
       <c r="G8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="82">
         <v>42733</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="82">
         <v>42733</v>
       </c>
       <c r="K8" s="38"/>
@@ -2125,16 +2155,16 @@
       <c r="M8" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="82">
         <v>42733</v>
       </c>
-      <c r="Q8" s="86" t="s">
+      <c r="Q8" s="84" t="s">
         <v>77</v>
       </c>
       <c r="R8" s="44"/>
@@ -2142,14 +2172,14 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
@@ -2164,13 +2194,13 @@
       <c r="G9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="82">
         <v>42733</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="82">
         <v>42733</v>
       </c>
       <c r="K9" s="38"/>
@@ -2180,16 +2210,16 @@
       <c r="M9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="82">
         <v>42733</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>77</v>
       </c>
       <c r="R9" s="44">
@@ -2221,13 +2251,13 @@
       <c r="G10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="94">
         <v>42734</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="94">
         <v>42734</v>
       </c>
       <c r="K10" s="38"/>
@@ -2243,7 +2273,7 @@
       <c r="O10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="94">
         <v>42734</v>
       </c>
       <c r="Q10" s="47" t="s">
@@ -2257,148 +2287,343 @@
       <c r="U10" s="50"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="86"/>
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K11" s="81"/>
+      <c r="L11" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q11" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="86"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="51"/>
+    </row>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="15">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q12" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="86"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="51"/>
+    </row>
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K13" s="81"/>
+      <c r="L13" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q13" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="51"/>
+    </row>
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="15">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K14" s="81"/>
+      <c r="L14" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q14" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="51"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="15">
+      <c r="A15" s="36">
+        <v>14</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K15" s="81"/>
+      <c r="L15" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q15" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="15">
+      <c r="A16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K16" s="81"/>
+      <c r="L16" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2422,7 +2647,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2446,7 +2671,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -2470,7 +2695,7 @@
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2493,7 +2718,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="52"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2516,7 +2741,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2539,7 +2764,7 @@
       <c r="T22" s="54"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2562,7 +2787,7 @@
       <c r="T23" s="56"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2585,7 +2810,7 @@
       <c r="T24" s="57"/>
       <c r="U24" s="55"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2608,7 +2833,7 @@
       <c r="T25" s="56"/>
       <c r="U25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2631,7 +2856,7 @@
       <c r="T26" s="56"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2654,7 +2879,7 @@
       <c r="T27" s="53"/>
       <c r="U27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5">
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2677,7 +2902,7 @@
       <c r="T28" s="44"/>
       <c r="U28" s="52"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2700,7 +2925,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2723,7 +2948,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5">
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2746,7 +2971,7 @@
       <c r="T31" s="56"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2769,7 +2994,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2792,7 +3017,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="52"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2815,7 +3040,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2838,7 +3063,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2861,7 +3086,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2884,7 +3109,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2907,7 +3132,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2930,7 +3155,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2953,7 +3178,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2976,7 +3201,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2999,7 +3224,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3022,7 +3247,7 @@
       <c r="T43" s="53"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3045,7 +3270,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3068,7 +3293,7 @@
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3091,7 +3316,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3114,7 +3339,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3137,7 +3362,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3160,7 +3385,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3183,7 +3408,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3206,7 +3431,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3229,7 +3454,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3252,7 +3477,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3275,7 +3500,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3298,7 +3523,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3321,7 +3546,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3344,7 +3569,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3367,7 +3592,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3390,7 +3615,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3413,7 +3638,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3436,7 +3661,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3459,7 +3684,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3482,7 +3707,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3505,7 +3730,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3528,7 +3753,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3551,7 +3776,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3574,7 +3799,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3597,7 +3822,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3620,7 +3845,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3643,7 +3868,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3666,7 +3891,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3689,7 +3914,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -5800,7 +6025,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 I1:I1048576 G1:G1048576 T1:T10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
@@ -5835,24 +6060,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
@@ -5985,34 +6210,34 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:11" ht="19.2">
+      <c r="A1" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -6047,9 +6272,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
+    <row r="3" spans="1:11" ht="16.8">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6060,9 +6285,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
+    <row r="4" spans="1:11" ht="16.8">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6073,9 +6298,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
+    <row r="5" spans="1:11" ht="16.8">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6086,9 +6311,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+    <row r="6" spans="1:11" ht="16.8">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6099,9 +6324,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+    <row r="7" spans="1:11" ht="16.8">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6112,9 +6337,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
+    <row r="8" spans="1:11" ht="16.8">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6125,9 +6350,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
+    <row r="9" spans="1:11" ht="16.8">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6138,9 +6363,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+    <row r="10" spans="1:11" ht="16.8">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6151,7 +6376,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="15.6">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6185,54 +6410,54 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6273,7 +6498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6288,7 +6513,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6303,7 +6528,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6318,7 +6543,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6333,7 +6558,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6348,7 +6573,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6363,7 +6588,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6378,7 +6603,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6393,7 +6618,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6408,7 +6633,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6423,7 +6648,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6438,7 +6663,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6453,7 +6678,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6499,54 +6724,54 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6587,11 +6812,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6602,37 +6827,37 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="15">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="15">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6647,7 +6872,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6662,7 +6887,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6677,7 +6902,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6692,7 +6917,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6707,7 +6932,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6722,7 +6947,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6737,7 +6962,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6752,7 +6977,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6767,7 +6992,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6813,54 +7038,54 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6901,11 +7126,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6916,37 +7141,37 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="15">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="15">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6961,7 +7186,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6976,7 +7201,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6991,7 +7216,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7006,7 +7231,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7021,7 +7246,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7036,7 +7261,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7051,7 +7276,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7066,7 +7291,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7081,7 +7306,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7127,56 +7352,56 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7217,11 +7442,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7232,37 +7457,37 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="15">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="15">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7277,7 +7502,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7292,7 +7517,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7307,7 +7532,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7322,7 +7547,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7337,7 +7562,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7352,7 +7577,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7367,7 +7592,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7382,7 +7607,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7397,7 +7622,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7443,18 +7668,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -287,25 +287,25 @@
   </si>
   <si>
     <t>官网房间详情页增加类似百度爬虫防刷相关处理</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>新特性</t>
   </si>
   <si>
     <t>renterpc</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>朱彤</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>EQ组</t>
   </si>
   <si>
     <t>免测，开发自测及技术经理审核</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>【账单详情】定金押金抵扣，详情显示错误</t>
@@ -445,12 +445,54 @@
     <t>纪维玉</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>BS  去掉企业版和个人版选择</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>安迪</t>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>紫梦</t>
+  </si>
+  <si>
+    <t>移动版忘记密码企业版限制</t>
+  </si>
+  <si>
+    <t>mogoroom-papp</t>
+  </si>
+  <si>
+    <t>bs添加房东去掉400</t>
+  </si>
+  <si>
+    <t>首页工作台房源统计问题</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+  </si>
+  <si>
+    <t>生产同步数据问题</t>
+  </si>
+  <si>
+    <t>room-job-sync</t>
+  </si>
+  <si>
+    <t>梦先铭</t>
+  </si>
+  <si>
+    <t>房态图已预定的房源无法在房态图上展示</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -647,12 +689,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -923,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,67 +1197,58 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1280,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1648,7 +1678,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1764,13 +1794,13 @@
       <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="94">
         <v>42734</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="97">
+      <c r="J2" s="94">
         <v>42734</v>
       </c>
       <c r="K2" s="38"/>
@@ -1786,7 +1816,7 @@
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="94" t="s">
         <v>76</v>
       </c>
       <c r="Q2" s="47" t="s">
@@ -1804,38 +1834,38 @@
       <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="94">
         <v>42735</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="94">
+      <c r="J3" s="91">
         <v>42734</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="85" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="83" t="s">
         <v>82</v>
       </c>
       <c r="N3" s="47" t="s">
@@ -1853,7 +1883,7 @@
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
-      <c r="U3" s="96" t="s">
+      <c r="U3" s="93" t="s">
         <v>83</v>
       </c>
       <c r="V3" s="51"/>
@@ -1868,7 +1898,7 @@
       <c r="C4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="97" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="38" t="s">
@@ -1880,13 +1910,13 @@
       <c r="G4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="94">
         <v>42734</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="94">
         <v>42734</v>
       </c>
       <c r="K4" s="38"/>
@@ -1902,7 +1932,7 @@
       <c r="O4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="94" t="s">
         <v>76</v>
       </c>
       <c r="Q4" s="47" t="s">
@@ -1938,13 +1968,13 @@
       <c r="G5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="94">
         <v>42734</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="94">
         <v>42734</v>
       </c>
       <c r="K5" s="38"/>
@@ -1960,15 +1990,15 @@
       <c r="O5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="97" t="s">
+      <c r="P5" s="94" t="s">
         <v>91</v>
       </c>
       <c r="Q5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
       <c r="U5" s="52"/>
       <c r="V5" s="51"/>
     </row>
@@ -1994,13 +2024,13 @@
       <c r="G6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="94">
         <v>42734</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="94">
         <v>42734</v>
       </c>
       <c r="K6" s="38"/>
@@ -2016,7 +2046,7 @@
       <c r="O6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="94" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="47" t="s">
@@ -2033,13 +2063,13 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="96" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -2051,13 +2081,13 @@
       <c r="G7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="82">
         <v>42733</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="82">
         <v>42733</v>
       </c>
       <c r="K7" s="38"/>
@@ -2067,23 +2097,23 @@
       <c r="M7" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="84">
+      <c r="P7" s="82">
         <v>42733</v>
       </c>
-      <c r="Q7" s="86" t="s">
+      <c r="Q7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="98">
+      <c r="R7" s="95">
         <v>6941</v>
       </c>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
       <c r="U7" s="52"/>
       <c r="V7" s="51"/>
     </row>
@@ -2091,10 +2121,10 @@
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="50" t="s">
@@ -2109,13 +2139,13 @@
       <c r="G8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="82">
         <v>42733</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="82">
         <v>42733</v>
       </c>
       <c r="K8" s="38"/>
@@ -2125,16 +2155,16 @@
       <c r="M8" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="82">
         <v>42733</v>
       </c>
-      <c r="Q8" s="86" t="s">
+      <c r="Q8" s="84" t="s">
         <v>77</v>
       </c>
       <c r="R8" s="44"/>
@@ -2146,10 +2176,10 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
@@ -2164,13 +2194,13 @@
       <c r="G9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="82">
         <v>42733</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="82">
         <v>42733</v>
       </c>
       <c r="K9" s="38"/>
@@ -2180,16 +2210,16 @@
       <c r="M9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="82">
         <v>42733</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>77</v>
       </c>
       <c r="R9" s="44">
@@ -2221,13 +2251,13 @@
       <c r="G10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="94">
         <v>42734</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="94">
         <v>42734</v>
       </c>
       <c r="K10" s="38"/>
@@ -2243,7 +2273,7 @@
       <c r="O10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="94">
         <v>42734</v>
       </c>
       <c r="Q10" s="47" t="s">
@@ -2257,145 +2287,340 @@
       <c r="U10" s="50"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="86"/>
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="90">
+        <v>1</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K11" s="81"/>
+      <c r="L11" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q11" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="86"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="51"/>
+    </row>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="A12" s="90">
+        <v>2</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q12" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="86"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="51"/>
+    </row>
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="90">
+        <v>3</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K13" s="81"/>
+      <c r="L13" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q13" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="51"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="A14" s="90">
+        <v>4</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K14" s="81"/>
+      <c r="L14" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q14" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="51"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
+      <c r="A15" s="90">
+        <v>5</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K15" s="81"/>
+      <c r="L15" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q15" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="51"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
+      <c r="A16" s="90">
+        <v>6</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="91">
+        <v>42734</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="91">
+        <v>42734</v>
+      </c>
+      <c r="K16" s="81"/>
+      <c r="L16" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="51"/>
     </row>
     <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
@@ -5800,7 +6025,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 I1:I1048576 G1:G1048576 T1:T10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
@@ -5998,19 +6223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6048,8 +6273,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6061,8 +6286,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6074,8 +6299,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6087,8 +6312,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6100,8 +6325,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6113,8 +6338,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6126,8 +6351,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6139,8 +6364,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6201,36 +6426,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6515,36 +6740,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6587,11 +6812,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6602,35 +6827,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -6829,36 +7054,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6901,11 +7126,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6916,35 +7141,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7145,36 +7370,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7217,11 +7442,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7232,35 +7457,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -1254,6 +1254,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,9 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD16"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2288,8 +2288,8 @@
       <c r="V10" s="51"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="90">
-        <v>1</v>
+      <c r="A11" s="36">
+        <v>10</v>
       </c>
       <c r="B11" s="90" t="s">
         <v>67</v>
@@ -2297,7 +2297,7 @@
       <c r="C11" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="98" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="81" t="s">
@@ -2344,8 +2344,8 @@
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A12" s="90">
-        <v>2</v>
+      <c r="A12" s="36">
+        <v>11</v>
       </c>
       <c r="B12" s="90" t="s">
         <v>67</v>
@@ -2353,7 +2353,7 @@
       <c r="C12" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="98" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="81" t="s">
@@ -2400,8 +2400,8 @@
       <c r="V12" s="51"/>
     </row>
     <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="90">
-        <v>3</v>
+      <c r="A13" s="36">
+        <v>12</v>
       </c>
       <c r="B13" s="90" t="s">
         <v>67</v>
@@ -2456,8 +2456,8 @@
       <c r="V13" s="51"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A14" s="90">
-        <v>4</v>
+      <c r="A14" s="36">
+        <v>13</v>
       </c>
       <c r="B14" s="90" t="s">
         <v>67</v>
@@ -2465,7 +2465,7 @@
       <c r="C14" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="98" t="s">
         <v>125</v>
       </c>
       <c r="E14" s="81" t="s">
@@ -2512,8 +2512,8 @@
       <c r="V14" s="51"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A15" s="90">
-        <v>5</v>
+      <c r="A15" s="36">
+        <v>14</v>
       </c>
       <c r="B15" s="90" t="s">
         <v>67</v>
@@ -2521,7 +2521,7 @@
       <c r="C15" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="98" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="81" t="s">
@@ -2568,8 +2568,8 @@
       <c r="V15" s="51"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A16" s="90">
-        <v>6</v>
+      <c r="A16" s="36">
+        <v>15</v>
       </c>
       <c r="B16" s="90" t="s">
         <v>67</v>
@@ -2577,7 +2577,7 @@
       <c r="C16" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="98" t="s">
         <v>130</v>
       </c>
       <c r="E16" s="81" t="s">
@@ -6223,19 +6223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6273,8 +6273,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6286,8 +6286,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6299,8 +6299,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6312,8 +6312,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6325,8 +6325,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6338,8 +6338,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6351,8 +6351,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6364,8 +6364,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6426,36 +6426,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6740,36 +6740,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7054,36 +7054,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7370,36 +7370,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.1 20161230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.2.0.1 20161230/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="129">
   <si>
     <t>No</t>
   </si>
@@ -308,191 +313,172 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
+    <t>房间配置显示</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东公告栏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动版房源录入兼容性处理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，App，BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决提交聚有财申请资料异常时导致支付回滚的问题</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS  去掉企业版和个人版选择</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>安迪</t>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>紫梦</t>
+  </si>
+  <si>
+    <t>移动版忘记密码企业版限制</t>
+  </si>
+  <si>
+    <t>mogoroom-papp</t>
+  </si>
+  <si>
+    <t>bs添加房东去掉400</t>
+  </si>
+  <si>
+    <t>首页工作台房源统计问题</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+  </si>
+  <si>
+    <t>生产同步数据问题</t>
+  </si>
+  <si>
+    <t>room-job-sync</t>
+  </si>
+  <si>
+    <t>梦先铭</t>
+  </si>
+  <si>
+    <t>房态图已预定的房源无法在房态图上展示</t>
+  </si>
+  <si>
     <t>【账单详情】定金押金抵扣，详情显示错误</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>partner、partnerpc</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>王辉</t>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>添加单次账单发送短信为周期性账单提示优化</t>
+  </si>
+  <si>
+    <t>王祥毅</t>
+  </si>
+  <si>
+    <t>历史退房数据兼容</t>
+  </si>
+  <si>
+    <t>partnerpc</t>
+  </si>
+  <si>
+    <t>李敖</t>
     <rPh sb="0" eb="1">
-      <t>w'h</t>
+      <t>li'ao</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>捷豹组</t>
+    <t>余星赞</t>
     <rPh sb="0" eb="1">
-      <t>jie'bao'zu</t>
+      <t>y'x'z</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加单次账单发送短信为周期性账单提示优化</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner、partnerpc</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>王祥毅</t>
-    <rPh sb="0" eb="1">
-      <t>w'x'y</t>
-    </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/230</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史退房数据兼容</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerpc</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间配置显示</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>李萌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东公告栏</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>安栋</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动版房源录入兼容性处理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC，App，BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱彤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷黎娜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决提交聚有财申请资料异常时导致支付回滚的问题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasktracker</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS  去掉企业版和个人版选择</t>
-  </si>
-  <si>
-    <t>mogoroom-bs</t>
-  </si>
-  <si>
-    <t>安迪</t>
-  </si>
-  <si>
-    <t>野帝组</t>
-  </si>
-  <si>
-    <t>紫梦</t>
-  </si>
-  <si>
-    <t>移动版忘记密码企业版限制</t>
-  </si>
-  <si>
-    <t>mogoroom-papp</t>
-  </si>
-  <si>
-    <t>bs添加房东去掉400</t>
-  </si>
-  <si>
-    <t>首页工作台房源统计问题</t>
-  </si>
-  <si>
-    <t>郑良杰</t>
-  </si>
-  <si>
-    <t>生产同步数据问题</t>
-  </si>
-  <si>
-    <t>room-job-sync</t>
-  </si>
-  <si>
-    <t>梦先铭</t>
-  </si>
-  <si>
-    <t>房态图已预定的房源无法在房态图上展示</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -695,18 +681,18 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="9"/>
@@ -717,6 +703,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -726,8 +713,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,8 +781,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -925,6 +931,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -959,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,9 +1303,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1283,6 +1332,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1298,7 +1401,7 @@
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1329,7 +1432,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
@@ -1677,37 +1780,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.83203125" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1811,7 +1914,7 @@
         <v>74</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>75</v>
@@ -1830,7 +1933,7 @@
       <c r="U2" s="50"/>
       <c r="V2" s="51"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -1869,16 +1972,16 @@
         <v>82</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="P3" s="39">
         <v>42734</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
@@ -1888,57 +1991,57 @@
       </c>
       <c r="V3" s="51"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="110" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="94">
         <v>42734</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="112" t="s">
         <v>72</v>
       </c>
       <c r="J4" s="94">
         <v>42734</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" s="47" t="s">
+      <c r="K4" s="112"/>
+      <c r="L4" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="47" t="s">
+      <c r="P4" s="94">
+        <v>42734</v>
+      </c>
+      <c r="Q4" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="113">
         <v>6934</v>
       </c>
       <c r="S4" s="44"/>
@@ -1946,120 +2049,122 @@
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="118" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="94">
         <v>42734</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="120" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="94">
         <v>42734</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="47" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="47" t="s">
+      <c r="P5" s="94">
+        <v>42734</v>
+      </c>
+      <c r="Q5" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="95"/>
+      <c r="R5" s="123">
+        <v>6956</v>
+      </c>
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="52"/>
       <c r="V5" s="51"/>
     </row>
-    <row r="6" spans="1:22" ht="23.25" customHeight="1">
+    <row r="6" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="118" t="s">
         <v>72</v>
       </c>
       <c r="H6" s="94">
         <v>42734</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="120" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="94">
         <v>42734</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="47" t="s">
+      <c r="K6" s="120"/>
+      <c r="L6" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="47" t="s">
+      <c r="P6" s="94">
+        <v>42734</v>
+      </c>
+      <c r="Q6" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="124">
         <v>6954</v>
       </c>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -2070,13 +2175,13 @@
         <v>68</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>72</v>
@@ -2092,13 +2197,13 @@
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="47" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N7" s="80" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O7" s="84" t="s">
         <v>75</v>
@@ -2117,7 +2222,7 @@
       <c r="U7" s="52"/>
       <c r="V7" s="51"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -2128,10 +2233,10 @@
         <v>68</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>71</v>
@@ -2150,13 +2255,13 @@
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="47" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N8" s="89" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O8" s="84" t="s">
         <v>75</v>
@@ -2172,7 +2277,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="36">
         <v>8</v>
       </c>
@@ -2183,13 +2288,13 @@
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>72</v>
@@ -2205,13 +2310,13 @@
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N9" s="89" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O9" s="84" t="s">
         <v>75</v>
@@ -2229,7 +2334,7 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36">
         <v>9</v>
       </c>
@@ -2240,13 +2345,13 @@
         <v>68</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>72</v>
@@ -2262,13 +2367,13 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="47" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="O10" s="47" t="s">
         <v>75</v>
@@ -2287,7 +2392,7 @@
       <c r="U10" s="50"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -2297,14 +2402,14 @@
       <c r="C11" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="98" t="s">
-        <v>117</v>
+      <c r="D11" s="97" t="s">
+        <v>105</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G11" s="81" t="s">
         <v>72</v>
@@ -2320,13 +2425,13 @@
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="83" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N11" s="81" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O11" s="83" t="s">
         <v>75</v>
@@ -2343,7 +2448,7 @@
       <c r="U11" s="92"/>
       <c r="V11" s="51"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -2353,14 +2458,14 @@
       <c r="C12" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="98" t="s">
-        <v>122</v>
+      <c r="D12" s="97" t="s">
+        <v>110</v>
       </c>
       <c r="E12" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G12" s="81" t="s">
         <v>72</v>
@@ -2376,13 +2481,13 @@
       </c>
       <c r="K12" s="81"/>
       <c r="L12" s="83" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M12" s="81" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N12" s="81" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O12" s="83" t="s">
         <v>75</v>
@@ -2399,7 +2504,7 @@
       <c r="U12" s="93"/>
       <c r="V12" s="51"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36">
         <v>12</v>
       </c>
@@ -2410,13 +2515,13 @@
         <v>68</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E13" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G13" s="81" t="s">
         <v>72</v>
@@ -2432,13 +2537,13 @@
       </c>
       <c r="K13" s="81"/>
       <c r="L13" s="83" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M13" s="81" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N13" s="81" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O13" s="83" t="s">
         <v>75</v>
@@ -2455,7 +2560,7 @@
       <c r="U13" s="92"/>
       <c r="V13" s="51"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -2465,14 +2570,14 @@
       <c r="C14" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="98" t="s">
-        <v>125</v>
+      <c r="D14" s="97" t="s">
+        <v>113</v>
       </c>
       <c r="E14" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="81" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G14" s="81" t="s">
         <v>72</v>
@@ -2488,13 +2593,13 @@
       </c>
       <c r="K14" s="81"/>
       <c r="L14" s="83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M14" s="81" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N14" s="81" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O14" s="83" t="s">
         <v>75</v>
@@ -2511,7 +2616,7 @@
       <c r="U14" s="93"/>
       <c r="V14" s="51"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="36">
         <v>14</v>
       </c>
@@ -2521,14 +2626,14 @@
       <c r="C15" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="98" t="s">
-        <v>127</v>
+      <c r="D15" s="97" t="s">
+        <v>115</v>
       </c>
       <c r="E15" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G15" s="81" t="s">
         <v>72</v>
@@ -2544,13 +2649,13 @@
       </c>
       <c r="K15" s="81"/>
       <c r="L15" s="83" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M15" s="81" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N15" s="81" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O15" s="83" t="s">
         <v>75</v>
@@ -2567,7 +2672,7 @@
       <c r="U15" s="93"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -2577,14 +2682,14 @@
       <c r="C16" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>130</v>
+      <c r="D16" s="97" t="s">
+        <v>118</v>
       </c>
       <c r="E16" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>72</v>
@@ -2600,13 +2705,13 @@
       </c>
       <c r="K16" s="81"/>
       <c r="L16" s="83" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M16" s="81" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N16" s="81" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="O16" s="83" t="s">
         <v>75</v>
@@ -2623,7 +2728,7 @@
       <c r="U16" s="93"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2647,7 +2752,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2671,7 +2776,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -2695,7 +2800,7 @@
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2718,7 +2823,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="52"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2741,7 +2846,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2764,7 +2869,7 @@
       <c r="T22" s="54"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2787,7 +2892,7 @@
       <c r="T23" s="56"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2810,7 +2915,7 @@
       <c r="T24" s="57"/>
       <c r="U24" s="55"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2833,7 +2938,7 @@
       <c r="T25" s="56"/>
       <c r="U25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5">
+    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2856,7 +2961,7 @@
       <c r="T26" s="56"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5">
+    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2879,7 +2984,7 @@
       <c r="T27" s="53"/>
       <c r="U27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5">
+    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2902,7 +3007,7 @@
       <c r="T28" s="44"/>
       <c r="U28" s="52"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5">
+    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2925,7 +3030,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5">
+    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2948,7 +3053,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5">
+    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2971,7 +3076,7 @@
       <c r="T31" s="56"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5">
+    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2994,7 +3099,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3017,7 +3122,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="52"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3040,7 +3145,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -3063,7 +3168,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -3086,7 +3191,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -3109,7 +3214,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -3132,7 +3237,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -3155,7 +3260,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -3178,7 +3283,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -3201,7 +3306,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -3224,7 +3329,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3247,7 +3352,7 @@
       <c r="T43" s="53"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3270,7 +3375,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3293,7 +3398,7 @@
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3316,7 +3421,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3339,7 +3444,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3362,7 +3467,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3385,7 +3490,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3408,7 +3513,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3431,7 +3536,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3454,7 +3559,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3477,7 +3582,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3500,7 +3605,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3523,7 +3628,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3546,7 +3651,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3569,7 +3674,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3592,7 +3697,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3615,7 +3720,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3638,7 +3743,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3661,7 +3766,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3684,7 +3789,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3707,7 +3812,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3730,7 +3835,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3753,7 +3858,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3776,7 +3881,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3799,7 +3904,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3822,7 +3927,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3845,7 +3950,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3868,7 +3973,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3891,7 +3996,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3914,7 +4019,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3937,7 +4042,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3960,7 +4065,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3983,7 +4088,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -4006,7 +4111,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -4029,7 +4134,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -4052,7 +4157,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -4075,7 +4180,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -4098,7 +4203,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -4121,7 +4226,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -4144,7 +4249,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -4167,7 +4272,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -4190,7 +4295,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -4213,7 +4318,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -4236,7 +4341,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -4259,7 +4364,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4282,7 +4387,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4305,7 +4410,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4328,7 +4433,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4351,7 +4456,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4374,7 +4479,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4397,7 +4502,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4420,7 +4525,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4443,7 +4548,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4466,7 +4571,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4489,7 +4594,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4512,7 +4617,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4535,7 +4640,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4558,7 +4663,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4581,7 +4686,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4604,7 +4709,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4627,7 +4732,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4650,7 +4755,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4673,7 +4778,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4696,7 +4801,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4719,7 +4824,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4742,7 +4847,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4765,7 +4870,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4788,7 +4893,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4811,7 +4916,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4834,7 +4939,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4857,7 +4962,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4880,7 +4985,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4903,7 +5008,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4926,7 +5031,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4949,7 +5054,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4972,7 +5077,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4995,7 +5100,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -5018,7 +5123,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -5041,7 +5146,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -5064,7 +5169,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -5087,7 +5192,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -5110,7 +5215,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -5133,7 +5238,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -5156,7 +5261,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -5179,7 +5284,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -5202,7 +5307,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -5225,7 +5330,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -5248,7 +5353,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -5271,7 +5376,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -5294,7 +5399,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5317,7 +5422,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5337,7 +5442,7 @@
       <c r="Q134" s="45"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5357,7 +5462,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5377,7 +5482,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5397,7 +5502,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5417,7 +5522,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5437,7 +5542,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5457,7 +5562,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5477,7 +5582,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5497,7 +5602,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5517,7 +5622,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5537,7 +5642,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5557,7 +5662,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5577,7 +5682,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5597,7 +5702,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5617,7 +5722,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5637,7 +5742,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5657,7 +5762,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5677,7 +5782,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5697,7 +5802,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5717,7 +5822,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5737,7 +5842,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5757,7 +5862,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5777,7 +5882,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5797,7 +5902,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5817,7 +5922,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5837,7 +5942,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5857,7 +5962,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5877,7 +5982,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5897,7 +6002,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5917,7 +6022,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5937,7 +6042,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5957,7 +6062,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5977,7 +6082,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5997,7 +6102,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -6025,25 +6130,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576 T1:T1048576 G1:G3 I1:I3 I7:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3 O7:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 M7:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E7:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B7:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 C7:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3 Q7:Q1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6060,27 +6165,27 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
@@ -6136,7 +6241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -6156,7 +6261,7 @@
       <c r="Q2" s="71"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -6176,7 +6281,7 @@
       <c r="Q3" s="71"/>
       <c r="R3" s="71"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -6210,34 +6315,34 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -6272,9 +6377,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6285,9 +6390,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6298,9 +6403,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6311,9 +6416,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6324,9 +6429,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6337,9 +6442,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6350,9 +6455,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6363,9 +6468,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6376,7 +6481,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6410,54 +6515,54 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6498,7 +6603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6513,7 +6618,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6528,7 +6633,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6543,7 +6648,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6558,7 +6663,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6573,7 +6678,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6588,7 +6693,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6603,7 +6708,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6618,7 +6723,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6633,7 +6738,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6648,7 +6753,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6663,7 +6768,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6678,7 +6783,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6724,54 +6829,54 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6812,7 +6917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6827,7 +6932,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -6842,7 +6947,7 @@
       <c r="L5" s="85"/>
       <c r="M5" s="86"/>
     </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -6857,7 +6962,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6872,7 +6977,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6887,7 +6992,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6902,7 +7007,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6917,7 +7022,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6932,7 +7037,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6947,7 +7052,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6962,7 +7067,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6977,7 +7082,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6992,7 +7097,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7038,54 +7143,54 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7126,7 +7231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7141,7 +7246,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -7156,7 +7261,7 @@
       <c r="L5" s="85"/>
       <c r="M5" s="86"/>
     </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -7171,7 +7276,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7186,7 +7291,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7201,7 +7306,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7216,7 +7321,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7231,7 +7336,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7246,7 +7351,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7261,7 +7366,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7276,7 +7381,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7291,7 +7396,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7306,7 +7411,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7352,56 +7457,56 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7442,7 +7547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7457,7 +7562,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -7472,7 +7577,7 @@
       <c r="L5" s="85"/>
       <c r="M5" s="86"/>
     </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -7487,7 +7592,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7502,7 +7607,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7517,7 +7622,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7532,7 +7637,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7547,7 +7652,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7562,7 +7667,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7577,7 +7682,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7592,7 +7697,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7607,7 +7712,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7622,7 +7727,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7668,18 +7773,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7705,7 +7810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7715,7 +7820,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7725,7 +7830,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7735,7 +7840,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7745,7 +7850,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7755,7 +7860,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7765,7 +7870,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7775,7 +7880,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7785,7 +7890,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7795,7 +7900,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7805,7 +7910,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7815,7 +7920,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7825,7 +7930,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7835,7 +7940,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7845,7 +7950,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7855,7 +7960,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7865,7 +7970,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7875,7 +7980,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="129">
   <si>
     <t>No</t>
   </si>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>12/230</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
@@ -342,10 +338,6 @@
     <rPh sb="0" eb="1">
       <t>w'x'y</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/230</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -695,17 +687,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -717,6 +712,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1678,7 +1674,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1811,16 +1807,16 @@
         <v>74</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="P2" s="39">
+        <v>42734</v>
+      </c>
+      <c r="Q2" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="R2" s="47">
         <v>6947</v>
@@ -1841,13 +1837,13 @@
         <v>68</v>
       </c>
       <c r="D3" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="F3" s="81" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>80</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>72</v>
@@ -1863,28 +1859,28 @@
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="83" t="s">
-        <v>82</v>
-      </c>
       <c r="N3" s="47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P3" s="39">
         <v>42734</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
       <c r="U3" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V3" s="51"/>
     </row>
@@ -1899,13 +1895,13 @@
         <v>68</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>72</v>
@@ -1921,22 +1917,22 @@
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="38" t="s">
-        <v>87</v>
-      </c>
       <c r="N4" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="39">
+        <v>42734</v>
+      </c>
+      <c r="Q4" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="R4" s="47">
         <v>6934</v>
@@ -1957,13 +1953,13 @@
         <v>68</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>72</v>
@@ -1979,22 +1975,22 @@
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="94" t="s">
-        <v>91</v>
+      <c r="P5" s="39">
+        <v>42734</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
@@ -2013,13 +2009,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>72</v>
@@ -2035,22 +2031,22 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="38" t="s">
-        <v>87</v>
-      </c>
       <c r="N6" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="39">
+        <v>42734</v>
+      </c>
+      <c r="Q6" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="R6" s="44">
         <v>6954</v>
@@ -2070,13 +2066,13 @@
         <v>68</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>72</v>
@@ -2092,13 +2088,13 @@
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>97</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="80" t="s">
-        <v>99</v>
       </c>
       <c r="O7" s="84" t="s">
         <v>75</v>
@@ -2107,7 +2103,7 @@
         <v>42733</v>
       </c>
       <c r="Q7" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R7" s="95">
         <v>6941</v>
@@ -2128,10 +2124,10 @@
         <v>68</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>71</v>
@@ -2150,13 +2146,13 @@
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8" s="89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" s="84" t="s">
         <v>75</v>
@@ -2165,7 +2161,7 @@
         <v>42733</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
@@ -2183,13 +2179,13 @@
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>72</v>
@@ -2205,13 +2201,13 @@
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="47" t="s">
-        <v>98</v>
-      </c>
       <c r="N9" s="89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O9" s="84" t="s">
         <v>75</v>
@@ -2220,7 +2216,7 @@
         <v>42733</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R9" s="44">
         <v>6819</v>
@@ -2240,13 +2236,13 @@
         <v>68</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>72</v>
@@ -2262,13 +2258,13 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="38" t="s">
         <v>114</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>116</v>
       </c>
       <c r="O10" s="47" t="s">
         <v>75</v>
@@ -2277,7 +2273,7 @@
         <v>42734</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="47">
         <v>6963</v>
@@ -2298,13 +2294,13 @@
         <v>68</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="81" t="s">
         <v>72</v>
@@ -2320,13 +2316,13 @@
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="81" t="s">
         <v>119</v>
-      </c>
-      <c r="M11" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" s="81" t="s">
-        <v>121</v>
       </c>
       <c r="O11" s="83" t="s">
         <v>75</v>
@@ -2335,7 +2331,7 @@
         <v>42734</v>
       </c>
       <c r="Q11" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
@@ -2354,13 +2350,13 @@
         <v>68</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G12" s="81" t="s">
         <v>72</v>
@@ -2376,13 +2372,13 @@
       </c>
       <c r="K12" s="81"/>
       <c r="L12" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="81" t="s">
         <v>119</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" s="81" t="s">
-        <v>121</v>
       </c>
       <c r="O12" s="83" t="s">
         <v>75</v>
@@ -2391,7 +2387,7 @@
         <v>42734</v>
       </c>
       <c r="Q12" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
@@ -2410,13 +2406,13 @@
         <v>68</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="81" t="s">
         <v>72</v>
@@ -2432,13 +2428,13 @@
       </c>
       <c r="K13" s="81"/>
       <c r="L13" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="81" t="s">
         <v>119</v>
-      </c>
-      <c r="M13" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="81" t="s">
-        <v>121</v>
       </c>
       <c r="O13" s="83" t="s">
         <v>75</v>
@@ -2447,7 +2443,7 @@
         <v>42734</v>
       </c>
       <c r="Q13" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
@@ -2466,13 +2462,13 @@
         <v>68</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="81" t="s">
         <v>72</v>
@@ -2488,13 +2484,13 @@
       </c>
       <c r="K14" s="81"/>
       <c r="L14" s="83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N14" s="81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O14" s="83" t="s">
         <v>75</v>
@@ -2503,7 +2499,7 @@
         <v>42734</v>
       </c>
       <c r="Q14" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -2522,13 +2518,13 @@
         <v>68</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" s="81" t="s">
         <v>72</v>
@@ -2544,13 +2540,13 @@
       </c>
       <c r="K15" s="81"/>
       <c r="L15" s="83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M15" s="81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N15" s="81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O15" s="83" t="s">
         <v>75</v>
@@ -2559,7 +2555,7 @@
         <v>42734</v>
       </c>
       <c r="Q15" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
@@ -2578,13 +2574,13 @@
         <v>68</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>72</v>
@@ -2600,13 +2596,13 @@
       </c>
       <c r="K16" s="81"/>
       <c r="L16" s="83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M16" s="81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N16" s="81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O16" s="83" t="s">
         <v>75</v>
@@ -2615,7 +2611,7 @@
         <v>42734</v>
       </c>
       <c r="Q16" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>

--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.2.0.1 20161230/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.1 20161230\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="13065" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
   <si>
     <t>No</t>
   </si>
@@ -282,10 +282,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>12/230</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
@@ -478,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -681,18 +677,21 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -717,7 +716,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,6 +1306,60 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,60 +1386,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1401,7 +1401,7 @@
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="个性色4" xfId="8" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1780,37 +1780,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.83203125" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1914,16 +1914,16 @@
         <v>74</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="P2" s="91">
+        <v>42734</v>
+      </c>
+      <c r="Q2" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="R2" s="47">
         <v>6947</v>
@@ -1933,7 +1933,7 @@
       <c r="U2" s="50"/>
       <c r="V2" s="51"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -1944,13 +1944,13 @@
         <v>68</v>
       </c>
       <c r="D3" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="F3" s="81" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>80</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>72</v>
@@ -1966,82 +1966,82 @@
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="83" t="s">
-        <v>82</v>
-      </c>
       <c r="N3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="47" t="s">
         <v>96</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>97</v>
       </c>
       <c r="P3" s="39">
         <v>42734</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="53"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
       <c r="U3" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V3" s="51"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="101" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="94">
         <v>42734</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="103" t="s">
         <v>72</v>
       </c>
       <c r="J4" s="94">
         <v>42734</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113" t="s">
+      <c r="K4" s="103"/>
+      <c r="L4" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="113" t="s">
+      <c r="N4" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="94">
+      <c r="P4" s="91">
         <v>42734</v>
       </c>
-      <c r="Q4" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="113">
+      <c r="Q4" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="104">
         <v>6934</v>
       </c>
       <c r="S4" s="44"/>
@@ -2049,57 +2049,57 @@
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="109" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="94">
         <v>42734</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="111" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="94">
         <v>42734</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="121" t="s">
+      <c r="K5" s="111"/>
+      <c r="L5" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="94">
+      <c r="P5" s="91">
         <v>42734</v>
       </c>
-      <c r="Q5" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="123">
+      <c r="Q5" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="114">
         <v>6956</v>
       </c>
       <c r="S5" s="95"/>
@@ -2107,64 +2107,64 @@
       <c r="U5" s="52"/>
       <c r="V5" s="51"/>
     </row>
-    <row r="6" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="23.25" customHeight="1">
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="109" t="s">
         <v>72</v>
       </c>
       <c r="H6" s="94">
         <v>42734</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="111" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="94">
         <v>42734</v>
       </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121" t="s">
+      <c r="K6" s="111"/>
+      <c r="L6" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="121" t="s">
+      <c r="N6" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="94">
+      <c r="P6" s="91">
         <v>42734</v>
       </c>
-      <c r="Q6" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="124">
+      <c r="Q6" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="115">
         <v>6954</v>
       </c>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -2175,13 +2175,13 @@
         <v>68</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>72</v>
@@ -2197,13 +2197,13 @@
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="N7" s="80" t="s">
         <v>88</v>
-      </c>
-      <c r="N7" s="80" t="s">
-        <v>89</v>
       </c>
       <c r="O7" s="84" t="s">
         <v>75</v>
@@ -2212,7 +2212,7 @@
         <v>42733</v>
       </c>
       <c r="Q7" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R7" s="95">
         <v>6941</v>
@@ -2222,7 +2222,7 @@
       <c r="U7" s="52"/>
       <c r="V7" s="51"/>
     </row>
-    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -2233,10 +2233,10 @@
         <v>68</v>
       </c>
       <c r="D8" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>71</v>
@@ -2255,13 +2255,13 @@
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="89" t="s">
         <v>92</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="89" t="s">
-        <v>93</v>
       </c>
       <c r="O8" s="84" t="s">
         <v>75</v>
@@ -2270,14 +2270,14 @@
         <v>42733</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="36">
         <v>8</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>72</v>
@@ -2310,13 +2310,13 @@
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O9" s="84" t="s">
         <v>75</v>
@@ -2325,7 +2325,7 @@
         <v>42733</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R9" s="44">
         <v>6819</v>
@@ -2334,7 +2334,7 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="36">
         <v>9</v>
       </c>
@@ -2345,13 +2345,13 @@
         <v>68</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>72</v>
@@ -2367,22 +2367,22 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="N10" s="38" t="s">
         <v>103</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>104</v>
       </c>
       <c r="O10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="94">
+      <c r="P10" s="91">
         <v>42734</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="47">
         <v>6963</v>
@@ -2392,7 +2392,7 @@
       <c r="U10" s="50"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -2403,13 +2403,13 @@
         <v>68</v>
       </c>
       <c r="D11" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="81" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>106</v>
       </c>
       <c r="G11" s="81" t="s">
         <v>72</v>
@@ -2425,13 +2425,13 @@
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="N11" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="N11" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="O11" s="83" t="s">
         <v>75</v>
@@ -2440,7 +2440,7 @@
         <v>42734</v>
       </c>
       <c r="Q11" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
@@ -2448,7 +2448,7 @@
       <c r="U11" s="92"/>
       <c r="V11" s="51"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -2459,13 +2459,13 @@
         <v>68</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="81" t="s">
         <v>72</v>
@@ -2481,13 +2481,13 @@
       </c>
       <c r="K12" s="81"/>
       <c r="L12" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="81" t="s">
+      <c r="N12" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="N12" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="O12" s="83" t="s">
         <v>75</v>
@@ -2496,7 +2496,7 @@
         <v>42734</v>
       </c>
       <c r="Q12" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
@@ -2504,7 +2504,7 @@
       <c r="U12" s="93"/>
       <c r="V12" s="51"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="36">
         <v>12</v>
       </c>
@@ -2515,13 +2515,13 @@
         <v>68</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="81" t="s">
         <v>72</v>
@@ -2537,13 +2537,13 @@
       </c>
       <c r="K13" s="81"/>
       <c r="L13" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="N13" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="N13" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="O13" s="83" t="s">
         <v>75</v>
@@ -2552,7 +2552,7 @@
         <v>42734</v>
       </c>
       <c r="Q13" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
@@ -2560,7 +2560,7 @@
       <c r="U13" s="92"/>
       <c r="V13" s="51"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -2571,13 +2571,13 @@
         <v>68</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="81" t="s">
         <v>72</v>
@@ -2593,13 +2593,13 @@
       </c>
       <c r="K14" s="81"/>
       <c r="L14" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M14" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="N14" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="O14" s="83" t="s">
         <v>75</v>
@@ -2608,7 +2608,7 @@
         <v>42734</v>
       </c>
       <c r="Q14" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -2616,7 +2616,7 @@
       <c r="U14" s="93"/>
       <c r="V14" s="51"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36">
         <v>14</v>
       </c>
@@ -2627,13 +2627,13 @@
         <v>68</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="81" t="s">
         <v>72</v>
@@ -2649,13 +2649,13 @@
       </c>
       <c r="K15" s="81"/>
       <c r="L15" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="N15" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="O15" s="83" t="s">
         <v>75</v>
@@ -2664,7 +2664,7 @@
         <v>42734</v>
       </c>
       <c r="Q15" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
@@ -2672,7 +2672,7 @@
       <c r="U15" s="93"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -2683,13 +2683,13 @@
         <v>68</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="81" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>72</v>
@@ -2705,13 +2705,13 @@
       </c>
       <c r="K16" s="81"/>
       <c r="L16" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M16" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="N16" s="81" t="s">
-        <v>109</v>
       </c>
       <c r="O16" s="83" t="s">
         <v>75</v>
@@ -2720,7 +2720,7 @@
         <v>42734</v>
       </c>
       <c r="Q16" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
@@ -2728,7 +2728,7 @@
       <c r="U16" s="93"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2752,7 +2752,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2776,7 +2776,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -2800,7 +2800,7 @@
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2823,7 +2823,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="52"/>
     </row>
-    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2846,7 +2846,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2869,7 +2869,7 @@
       <c r="T22" s="54"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2892,7 +2892,7 @@
       <c r="T23" s="56"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2915,7 +2915,7 @@
       <c r="T24" s="57"/>
       <c r="U24" s="55"/>
     </row>
-    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2938,7 +2938,7 @@
       <c r="T25" s="56"/>
       <c r="U25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2961,7 +2961,7 @@
       <c r="T26" s="56"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2984,7 +2984,7 @@
       <c r="T27" s="53"/>
       <c r="U27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3007,7 +3007,7 @@
       <c r="T28" s="44"/>
       <c r="U28" s="52"/>
     </row>
-    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -3030,7 +3030,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
     </row>
-    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -3053,7 +3053,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -3076,7 +3076,7 @@
       <c r="T31" s="56"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -3099,7 +3099,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3122,7 +3122,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="52"/>
     </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3145,7 +3145,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
     </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -3168,7 +3168,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -3191,7 +3191,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -3214,7 +3214,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -3237,7 +3237,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -3260,7 +3260,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -3283,7 +3283,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -3306,7 +3306,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -3329,7 +3329,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3352,7 +3352,7 @@
       <c r="T43" s="53"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3375,7 +3375,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3398,7 +3398,7 @@
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3421,7 +3421,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3444,7 +3444,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3467,7 +3467,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3490,7 +3490,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3513,7 +3513,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3536,7 +3536,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3559,7 +3559,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3582,7 +3582,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3605,7 +3605,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3628,7 +3628,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3651,7 +3651,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3674,7 +3674,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3697,7 +3697,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3720,7 +3720,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3743,7 +3743,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3766,7 +3766,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3789,7 +3789,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3812,7 +3812,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3835,7 +3835,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3858,7 +3858,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3881,7 +3881,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3904,7 +3904,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3927,7 +3927,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3950,7 +3950,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3973,7 +3973,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3996,7 +3996,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -4019,7 +4019,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -4042,7 +4042,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -4065,7 +4065,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -4088,7 +4088,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -4111,7 +4111,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -4134,7 +4134,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -4157,7 +4157,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -4180,7 +4180,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -4203,7 +4203,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -4226,7 +4226,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -4249,7 +4249,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -4272,7 +4272,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -4295,7 +4295,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -4318,7 +4318,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -4341,7 +4341,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -4364,7 +4364,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4387,7 +4387,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4410,7 +4410,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4433,7 +4433,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4456,7 +4456,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4479,7 +4479,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4502,7 +4502,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4525,7 +4525,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4548,7 +4548,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4571,7 +4571,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4594,7 +4594,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4617,7 +4617,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4640,7 +4640,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4663,7 +4663,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4686,7 +4686,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4709,7 +4709,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4732,7 +4732,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4755,7 +4755,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4778,7 +4778,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4801,7 +4801,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4824,7 +4824,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4847,7 +4847,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4870,7 +4870,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4893,7 +4893,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4916,7 +4916,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4939,7 +4939,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4962,7 +4962,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4985,7 +4985,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -5008,7 +5008,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -5031,7 +5031,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -5054,7 +5054,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -5077,7 +5077,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -5100,7 +5100,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -5123,7 +5123,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -5146,7 +5146,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -5169,7 +5169,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -5192,7 +5192,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -5215,7 +5215,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -5238,7 +5238,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -5261,7 +5261,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -5284,7 +5284,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -5307,7 +5307,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -5330,7 +5330,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -5353,7 +5353,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -5376,7 +5376,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -5399,7 +5399,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5422,7 +5422,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5442,7 +5442,7 @@
       <c r="Q134" s="45"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5462,7 +5462,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5482,7 +5482,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5502,7 +5502,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5522,7 +5522,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5542,7 +5542,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5562,7 +5562,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5582,7 +5582,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5602,7 +5602,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5622,7 +5622,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5642,7 +5642,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5662,7 +5662,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5682,7 +5682,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5702,7 +5702,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5722,7 +5722,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5742,7 +5742,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5762,7 +5762,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5782,7 +5782,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5802,7 +5802,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5822,7 +5822,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5842,7 +5842,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5862,7 +5862,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5882,7 +5882,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5902,7 +5902,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5922,7 +5922,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5942,7 +5942,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5962,7 +5962,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5982,7 +5982,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -6002,7 +6002,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -6022,7 +6022,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -6042,7 +6042,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -6062,7 +6062,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -6082,7 +6082,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -6102,7 +6102,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -6165,27 +6165,27 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -6261,7 +6261,7 @@
       <c r="Q2" s="71"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -6281,7 +6281,7 @@
       <c r="Q3" s="71"/>
       <c r="R3" s="71"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -6315,34 +6315,34 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -6377,9 +6377,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6390,9 +6390,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6403,9 +6403,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6416,9 +6416,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6429,9 +6429,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6442,9 +6442,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6455,9 +6455,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6468,9 +6468,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6481,7 +6481,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6515,54 +6515,54 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6618,7 +6618,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6633,7 +6633,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6648,7 +6648,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6663,7 +6663,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6678,7 +6678,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6693,7 +6693,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6708,7 +6708,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6723,7 +6723,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6738,7 +6738,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6753,7 +6753,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6768,7 +6768,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6783,7 +6783,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6829,54 +6829,54 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6932,7 +6932,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -6947,7 +6947,7 @@
       <c r="L5" s="85"/>
       <c r="M5" s="86"/>
     </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -6962,7 +6962,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6977,7 +6977,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6992,7 +6992,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7007,7 +7007,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7022,7 +7022,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7037,7 +7037,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7052,7 +7052,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7067,7 +7067,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7082,7 +7082,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7097,7 +7097,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7143,54 +7143,54 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7246,7 +7246,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -7261,7 +7261,7 @@
       <c r="L5" s="85"/>
       <c r="M5" s="86"/>
     </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -7276,7 +7276,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7291,7 +7291,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7306,7 +7306,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7321,7 +7321,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7336,7 +7336,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7351,7 +7351,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7366,7 +7366,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7381,7 +7381,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7396,7 +7396,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7411,7 +7411,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7457,56 +7457,56 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7562,7 +7562,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -7577,7 +7577,7 @@
       <c r="L5" s="85"/>
       <c r="M5" s="86"/>
     </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="16.5">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -7592,7 +7592,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7607,7 +7607,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7622,7 +7622,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7637,7 +7637,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7652,7 +7652,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7667,7 +7667,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7682,7 +7682,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7697,7 +7697,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7712,7 +7712,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7727,7 +7727,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7773,18 +7773,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7820,7 +7820,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7830,7 +7830,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7840,7 +7840,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7850,7 +7850,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7860,7 +7860,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7870,7 +7870,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7880,7 +7880,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7890,7 +7890,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7900,7 +7900,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7910,7 +7910,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7920,7 +7920,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7930,7 +7930,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7940,7 +7940,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7950,7 +7950,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7960,7 +7960,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7970,7 +7970,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7980,7 +7980,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
